--- a/svigufo/1.bd/arquivo_base_importacao.xlsx
+++ b/svigufo/1.bd/arquivo_base_importacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\senai\senai-dev-1s2019\svigufo\1.bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FB5946-454D-4E15-8887-3A53E82715FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF224BA-6632-4801-8325-008CEE308EA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="8820" xr2:uid="{2FF4204D-1C0A-43F5-B2A2-DFA73395A02E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Nome do Evento</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Tipo do Evento</t>
-  </si>
-  <si>
-    <t>Palestrante</t>
   </si>
 </sst>
 </file>
@@ -500,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,10 +512,9 @@
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,11 +533,8 @@
       <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -549,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>43542.7916666667</v>
+        <v>43542.791666666701</v>
       </c>
       <c r="D2" s="2">
         <v>43474</v>
@@ -560,11 +553,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -572,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>43543.7916666088</v>
+        <v>43543.791666608799</v>
       </c>
       <c r="D3" s="2">
         <v>43474</v>
@@ -583,11 +573,8 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -595,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>43544.7916666088</v>
+        <v>43544.791666608799</v>
       </c>
       <c r="D4" s="2">
         <v>43474</v>
@@ -606,11 +593,8 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -618,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>43545.7916666088</v>
+        <v>43545.791666608799</v>
       </c>
       <c r="D5" s="2">
         <v>43474</v>
@@ -629,11 +613,8 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -641,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>43546.7916666088</v>
+        <v>43546.791666608799</v>
       </c>
       <c r="D6" s="2">
         <v>43474</v>
@@ -652,11 +633,8 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -664,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1">
-        <v>43547.7916666088</v>
+        <v>43547.791666608799</v>
       </c>
       <c r="D7" s="2">
         <v>43474</v>
@@ -675,11 +653,8 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -687,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>43548.7916666088</v>
+        <v>43548.791666608799</v>
       </c>
       <c r="D8" s="2">
         <v>43474</v>
@@ -698,11 +673,8 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -710,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>43549.7916666088</v>
+        <v>43549.791666608799</v>
       </c>
       <c r="D9" s="2">
         <v>43474</v>
@@ -721,11 +693,8 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -733,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>43550.7916666088</v>
+        <v>43550.791666608799</v>
       </c>
       <c r="D10" s="2">
         <v>43474</v>
@@ -744,11 +713,8 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -756,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>43551.7916666088</v>
+        <v>43551.791666608799</v>
       </c>
       <c r="D11" s="2">
         <v>43474</v>
@@ -767,11 +733,8 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -779,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>43552.7916666088</v>
+        <v>43552.791666608799</v>
       </c>
       <c r="D12" s="2">
         <v>43474</v>
@@ -790,11 +753,8 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -802,7 +762,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>43553.7916666088</v>
+        <v>43553.791666608799</v>
       </c>
       <c r="D13" s="2">
         <v>43474</v>
@@ -813,11 +773,8 @@
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -825,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>43554.7916666088</v>
+        <v>43554.791666608799</v>
       </c>
       <c r="D14" s="2">
         <v>43474</v>
@@ -836,11 +793,8 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -848,7 +802,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>43555.7916666088</v>
+        <v>43555.791666608799</v>
       </c>
       <c r="D15" s="2">
         <v>43474</v>
@@ -859,11 +813,8 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -871,7 +822,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>43556.7916666088</v>
+        <v>43556.791666608799</v>
       </c>
       <c r="D16" s="2">
         <v>43474</v>
@@ -882,11 +833,8 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -894,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>43557.7916666088</v>
+        <v>43557.791666608799</v>
       </c>
       <c r="D17" s="2">
         <v>43474</v>
@@ -905,440 +853,325 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Evento A</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>Descricao A</t>
-        </is>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>43542.7916666667</v>
+        <v>43542.791666666701</v>
       </c>
       <c r="D18" s="2">
         <v>43474</v>
       </c>
-      <c r="E18" s="0">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43543.791666608799</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
     </row>
-    <row outlineLevel="0" r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>Evento B</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>Descricao B</t>
-        </is>
-      </c>
-      <c r="C19" s="2">
-        <v>43543.7916666088</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E19" s="0">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43544.791666608799</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43545.791666608799</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43546.791666608799</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43547.791666608799</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>2</v>
       </c>
-      <c r="G19" s="0">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43548.791666608799</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43549.791666608799</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43550.791666608799</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43551.791666608799</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
     </row>
-    <row outlineLevel="0" r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>Evento C</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>Descricao C</t>
-        </is>
-      </c>
-      <c r="C20" s="2">
-        <v>43544.7916666088</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E20" s="0">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43552.791666608799</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="G20" s="0">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43553.791666608799</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43554.791666608799</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43555.791666608799</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
     </row>
-    <row outlineLevel="0" r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>Evento D</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>Descricao D</t>
-        </is>
-      </c>
-      <c r="C21" s="2">
-        <v>43545.7916666088</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E21" s="0">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43556.791666608799</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43557.791666608799</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>4</v>
-      </c>
-      <c r="G21" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>Evento E</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>Descricao E</t>
-        </is>
-      </c>
-      <c r="C22" s="2">
-        <v>43546.7916666088</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>Evento F</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>Descricao F</t>
-        </is>
-      </c>
-      <c r="C23" s="2">
-        <v>43547.7916666088</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E23" s="0">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0">
-        <v>2</v>
-      </c>
-      <c r="G23" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>Evento G</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>Descricao G</t>
-        </is>
-      </c>
-      <c r="C24" s="2">
-        <v>43548.7916666088</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E24" s="0">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0">
-        <v>3</v>
-      </c>
-      <c r="G24" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>Evento H</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>Descricao H</t>
-        </is>
-      </c>
-      <c r="C25" s="2">
-        <v>43549.7916666088</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E25" s="0">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0">
-        <v>4</v>
-      </c>
-      <c r="G25" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>Evento I</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>Descricao I</t>
-        </is>
-      </c>
-      <c r="C26" s="2">
-        <v>43550.7916666088</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E26" s="0">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>Evento J</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>Descricao J</t>
-        </is>
-      </c>
-      <c r="C27" s="2">
-        <v>43551.7916666088</v>
-      </c>
-      <c r="D27" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0">
-        <v>2</v>
-      </c>
-      <c r="G27" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>Evento K</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>Descricao K</t>
-        </is>
-      </c>
-      <c r="C28" s="2">
-        <v>43552.7916666088</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0">
-        <v>3</v>
-      </c>
-      <c r="G28" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>Evento L</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>Descricao L</t>
-        </is>
-      </c>
-      <c r="C29" s="2">
-        <v>43553.7916666088</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E29" s="0">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0">
-        <v>4</v>
-      </c>
-      <c r="G29" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>Evento M</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>Descricao M</t>
-        </is>
-      </c>
-      <c r="C30" s="2">
-        <v>43554.7916666088</v>
-      </c>
-      <c r="D30" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E30" s="0">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>Evento N</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>Descricao N</t>
-        </is>
-      </c>
-      <c r="C31" s="2">
-        <v>43555.7916666088</v>
-      </c>
-      <c r="D31" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E31" s="0">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0">
-        <v>2</v>
-      </c>
-      <c r="G31" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>Evento O</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>Descricao O</t>
-        </is>
-      </c>
-      <c r="C32" s="2">
-        <v>43556.7916666088</v>
-      </c>
-      <c r="D32" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E32" s="0">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0">
-        <v>3</v>
-      </c>
-      <c r="G32" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>Evento P</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>Descricao P</t>
-        </is>
-      </c>
-      <c r="C33" s="2">
-        <v>43557.7916666088</v>
-      </c>
-      <c r="D33" s="2">
-        <v>43474</v>
-      </c>
-      <c r="E33" s="0">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0">
-        <v>4</v>
-      </c>
-      <c r="G33" s="0">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
